--- a/data/prices.xlsx
+++ b/data/prices.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFC40F7-9B30-46CE-B324-2FAC6B1BFCDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7C3768-9D5A-4A2F-9400-DBFBD573669D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8364" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SAPTHAGIRI NAGAMANGALA" sheetId="1" r:id="rId1"/>
+    <sheet name="MANJUNATHA AGRO MANDYA" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="92">
   <si>
     <t>SAPATHAGIRI AGRO AGECNIES NAGAMANGALA</t>
   </si>
@@ -28,9 +29,6 @@
     <t xml:space="preserve"> S NO</t>
   </si>
   <si>
-    <t>PRODUCAT NAME</t>
-  </si>
-  <si>
     <t>PACK</t>
   </si>
   <si>
@@ -293,6 +291,12 @@
   </si>
   <si>
     <t>800 GM</t>
+  </si>
+  <si>
+    <t>MANJUNATHA AGRO AGENCIES MANDYA</t>
+  </si>
+  <si>
+    <t>PRODUCT NAME</t>
   </si>
 </sst>
 </file>
@@ -695,7 +699,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -721,25 +727,25 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.4">
@@ -747,10 +753,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="D5" s="5">
         <v>5.4</v>
@@ -774,10 +780,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="5">
         <v>5.4</v>
@@ -801,10 +807,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="5">
         <v>6</v>
@@ -828,10 +834,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="5">
         <v>5.6</v>
@@ -855,10 +861,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="5">
         <v>6</v>
@@ -882,10 +888,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="5">
         <v>7.2</v>
@@ -909,10 +915,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="D11" s="5">
         <v>3</v>
@@ -936,10 +942,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="5">
         <v>6</v>
@@ -963,10 +969,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="5">
         <v>6</v>
@@ -990,10 +996,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="D14" s="5">
         <v>6</v>
@@ -1017,10 +1023,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="D15" s="5">
         <v>24</v>
@@ -1044,10 +1050,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="5">
         <v>24</v>
@@ -1071,10 +1077,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="D17" s="5">
         <v>1.8</v>
@@ -1098,10 +1104,10 @@
         <v>14</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" s="5">
         <v>3.4</v>
@@ -1125,10 +1131,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="5">
         <v>6.8</v>
@@ -1152,10 +1158,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="D20" s="5">
         <v>5</v>
@@ -1179,10 +1185,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" s="5">
         <v>5</v>
@@ -1206,10 +1212,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" s="5">
         <v>5</v>
@@ -1233,10 +1239,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="9">
@@ -1258,10 +1264,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="D24" s="5">
         <v>2.5</v>
@@ -1281,10 +1287,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="D25" s="5">
         <v>10</v>
@@ -1308,10 +1314,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D26" s="5">
         <v>8</v>
@@ -1335,10 +1341,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D27" s="5">
         <v>10</v>
@@ -1362,10 +1368,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D28" s="5">
         <v>10</v>
@@ -1389,10 +1395,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="D29" s="5">
         <v>10</v>
@@ -1416,10 +1422,10 @@
         <v>26</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D30" s="5">
         <v>10</v>
@@ -1443,10 +1449,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D31" s="5">
         <v>10</v>
@@ -1470,10 +1476,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D32" s="5">
         <v>4</v>
@@ -1497,10 +1503,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D33" s="5">
         <v>4</v>
@@ -1524,10 +1530,10 @@
         <v>30</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D34" s="5">
         <v>4</v>
@@ -1551,10 +1557,10 @@
         <v>31</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="D35" s="5">
         <v>10</v>
@@ -1578,10 +1584,10 @@
         <v>32</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D36" s="5">
         <v>5</v>
@@ -1605,10 +1611,10 @@
         <v>33</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="D37" s="5">
         <v>0.6</v>
@@ -1632,10 +1638,10 @@
         <v>34</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D38" s="5">
         <v>0.6</v>
@@ -1659,10 +1665,10 @@
         <v>35</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D39" s="5">
         <v>4</v>
@@ -1686,10 +1692,10 @@
         <v>36</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D40" s="5">
         <v>4</v>
@@ -1713,10 +1719,10 @@
         <v>37</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D41" s="5">
         <v>4</v>
@@ -1740,10 +1746,10 @@
         <v>38</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D42" s="5">
         <v>4</v>
@@ -1767,10 +1773,10 @@
         <v>39</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="D43" s="5">
         <v>10</v>
@@ -1794,10 +1800,10 @@
         <v>40</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D44" s="5">
         <v>10</v>
@@ -1821,10 +1827,10 @@
         <v>41</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D45" s="5">
         <v>10</v>
@@ -1848,10 +1854,10 @@
         <v>42</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D46" s="5">
         <v>12</v>
@@ -1875,10 +1881,10 @@
         <v>43</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D47" s="5">
         <v>10</v>
@@ -1902,10 +1908,10 @@
         <v>44</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D48" s="5">
         <v>10</v>
@@ -1929,10 +1935,10 @@
         <v>45</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D49" s="5">
         <v>10</v>
@@ -1956,10 +1962,10 @@
         <v>46</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D50" s="5">
         <v>10</v>
@@ -1983,10 +1989,10 @@
         <v>47</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D51" s="5">
         <v>10</v>
@@ -2010,10 +2016,10 @@
         <v>48</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D52" s="5">
         <v>10</v>
@@ -2037,10 +2043,10 @@
         <v>49</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="D53" s="5">
         <v>20</v>
@@ -2064,10 +2070,10 @@
         <v>50</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D54" s="5">
         <v>4</v>
@@ -2091,10 +2097,10 @@
         <v>51</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D55" s="5">
         <v>4</v>
@@ -2118,10 +2124,10 @@
         <v>52</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D56" s="5">
         <v>4</v>
@@ -2145,10 +2151,10 @@
         <v>53</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D57" s="5">
         <v>10</v>
@@ -2172,10 +2178,10 @@
         <v>54</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D58" s="5">
         <v>10</v>
@@ -2199,10 +2205,10 @@
         <v>55</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D59" s="5">
         <v>10</v>
@@ -2226,10 +2232,10 @@
         <v>56</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D60" s="5">
         <v>10</v>
@@ -2253,10 +2259,10 @@
         <v>57</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D61" s="5">
         <v>10</v>
@@ -2280,10 +2286,10 @@
         <v>58</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D62" s="5">
         <v>10</v>
@@ -2307,10 +2313,10 @@
         <v>59</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D63" s="5">
         <v>10</v>
@@ -2334,10 +2340,10 @@
         <v>60</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D64" s="5">
         <v>10</v>
@@ -2361,10 +2367,10 @@
         <v>61</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D65" s="5">
         <v>10</v>
@@ -2388,10 +2394,10 @@
         <v>62</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D66" s="5">
         <v>10</v>
@@ -2415,10 +2421,10 @@
         <v>63</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D67" s="5">
         <v>10</v>
@@ -2442,10 +2448,10 @@
         <v>64</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D68" s="5">
         <v>10</v>
@@ -2469,10 +2475,10 @@
         <v>65</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D69" s="5">
         <v>10</v>
@@ -2496,10 +2502,10 @@
         <v>66</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D70" s="5">
         <v>10</v>
@@ -2523,10 +2529,10 @@
         <v>67</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="D71" s="5">
         <v>12</v>
@@ -2550,10 +2556,10 @@
         <v>68</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D72" s="5">
         <v>12</v>
@@ -2577,10 +2583,10 @@
         <v>69</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D73" s="5">
         <v>10</v>
@@ -2604,10 +2610,10 @@
         <v>70</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D74" s="5">
         <v>10</v>
@@ -2631,10 +2637,10 @@
         <v>71</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D75" s="5">
         <v>10</v>
@@ -2658,10 +2664,10 @@
         <v>72</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D76" s="5">
         <v>10</v>
@@ -2685,10 +2691,10 @@
         <v>73</v>
       </c>
       <c r="B77" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="D77" s="5">
         <v>1.536</v>
@@ -2712,10 +2718,10 @@
         <v>74</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D78" s="5">
         <v>1.536</v>
@@ -2739,10 +2745,10 @@
         <v>75</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D79" s="5">
         <v>1.536</v>
@@ -2766,10 +2772,10 @@
         <v>76</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D80" s="5">
         <v>6</v>
@@ -2793,10 +2799,10 @@
         <v>77</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D81" s="5">
         <v>6</v>
@@ -2820,10 +2826,10 @@
         <v>78</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D82" s="5">
         <v>6</v>
@@ -2847,10 +2853,10 @@
         <v>79</v>
       </c>
       <c r="B83" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="D83" s="5">
         <v>7.2</v>
@@ -2874,10 +2880,10 @@
         <v>80</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D84" s="5">
         <v>7.2</v>
@@ -2901,10 +2907,10 @@
         <v>81</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D85" s="5">
         <v>7.2</v>
@@ -2928,10 +2934,10 @@
         <v>82</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D86" s="5">
         <v>10</v>
@@ -2955,10 +2961,10 @@
         <v>83</v>
       </c>
       <c r="B87" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="D87" s="5">
         <v>0.92</v>
@@ -2982,10 +2988,10 @@
         <v>84</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D88" s="5">
         <v>0.92</v>
@@ -3009,10 +3015,10 @@
         <v>85</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D89" s="5">
         <v>10</v>
@@ -3036,10 +3042,10 @@
         <v>86</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D90" s="5">
         <v>10</v>
@@ -3063,10 +3069,10 @@
         <v>87</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D91" s="5">
         <v>4</v>
@@ -3090,10 +3096,10 @@
         <v>88</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D92" s="5">
         <v>4</v>
@@ -3117,10 +3123,2473 @@
         <v>89</v>
       </c>
       <c r="B93" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>89</v>
       </c>
+      <c r="D93" s="5">
+        <v>4</v>
+      </c>
+      <c r="E93" s="9">
+        <v>2816</v>
+      </c>
+      <c r="F93" s="3">
+        <v>1746</v>
+      </c>
+      <c r="G93" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H93" s="8">
+        <f t="shared" si="0"/>
+        <v>2060.2799999999997</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="95" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="96" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:H100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="7" width="8.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" customWidth="1"/>
+    <col min="9" max="11" width="8.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" ht="14.4">
+      <c r="B2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="14.4">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.4">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5">
+        <v>5.4</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1075</v>
+      </c>
+      <c r="F5" s="5">
+        <v>524</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H5" s="8">
+        <f t="shared" ref="H5:H93" si="0">F5+(F5*G5)</f>
+        <v>618.31999999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14.4">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5">
+        <v>5.4</v>
+      </c>
+      <c r="E6" s="9">
+        <v>2121</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1031</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H6" s="8">
+        <f t="shared" si="0"/>
+        <v>1216.58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14.4">
+      <c r="A7" s="3">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="5">
+        <v>6</v>
+      </c>
+      <c r="E7" s="9">
+        <v>2808</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1365</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H7" s="8">
+        <f t="shared" si="0"/>
+        <v>1610.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="14.4">
+      <c r="A8" s="3">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="5">
+        <v>5.6</v>
+      </c>
+      <c r="E8" s="9">
+        <v>3268</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1588</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H8" s="8">
+        <f t="shared" si="0"/>
+        <v>1873.84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="14.4">
+      <c r="A9" s="3">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="5">
+        <v>6</v>
+      </c>
+      <c r="E9" s="9">
+        <v>3455</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1679</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H9" s="8">
+        <f t="shared" si="0"/>
+        <v>1981.22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="14.4">
+      <c r="A10" s="3">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="5">
+        <v>7.2</v>
+      </c>
+      <c r="E10" s="9">
+        <v>4146</v>
+      </c>
+      <c r="F10" s="5">
+        <v>2014</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H10" s="8">
+        <f t="shared" si="0"/>
+        <v>2376.52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="14.4">
+      <c r="A11" s="3">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="5">
+        <v>3</v>
+      </c>
+      <c r="E11" s="9">
+        <v>220</v>
+      </c>
+      <c r="F11" s="5">
+        <v>77</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H11" s="8">
+        <f t="shared" si="0"/>
+        <v>90.86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="14.4">
+      <c r="A12" s="3">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="5">
+        <v>6</v>
+      </c>
+      <c r="E12" s="9">
+        <v>597</v>
+      </c>
+      <c r="F12" s="5">
+        <v>204</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H12" s="8">
+        <f t="shared" si="0"/>
+        <v>240.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="14.4">
+      <c r="A13" s="3">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="5">
+        <v>6</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1130</v>
+      </c>
+      <c r="F13" s="5">
+        <v>384</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H13" s="8">
+        <f t="shared" si="0"/>
+        <v>453.12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="14.4">
+      <c r="A14" s="3">
+        <v>10</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="5">
+        <v>6</v>
+      </c>
+      <c r="E14" s="9">
+        <v>2792</v>
+      </c>
+      <c r="F14" s="5">
+        <v>946</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H14" s="8">
+        <f t="shared" si="0"/>
+        <v>1116.28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="14.4">
+      <c r="A15" s="3">
+        <v>11</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="5">
+        <v>24</v>
+      </c>
+      <c r="E15" s="9">
+        <v>267</v>
+      </c>
+      <c r="F15" s="5">
+        <v>132</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H15" s="8">
+        <f t="shared" si="0"/>
+        <v>155.76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="14.4">
+      <c r="A16" s="3">
+        <v>12</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="5">
+        <v>24</v>
+      </c>
+      <c r="E16" s="9">
+        <v>996</v>
+      </c>
+      <c r="F16" s="5">
+        <v>484</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H16" s="8">
+        <f t="shared" si="0"/>
+        <v>571.12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="14.4">
+      <c r="A17" s="3">
+        <v>13</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="E17" s="9">
+        <v>225</v>
+      </c>
+      <c r="F17" s="5">
+        <v>172</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H17" s="8">
+        <f t="shared" si="0"/>
+        <v>202.96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="14.4">
+      <c r="A18" s="3">
+        <v>14</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="5">
+        <v>3.4</v>
+      </c>
+      <c r="E18" s="9">
+        <v>610</v>
+      </c>
+      <c r="F18" s="5">
+        <v>428</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H18" s="8">
+        <f t="shared" si="0"/>
+        <v>505.03999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="14.4">
+      <c r="A19" s="3">
+        <v>15</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="5">
+        <v>6.8</v>
+      </c>
+      <c r="E19" s="10">
+        <v>1380</v>
+      </c>
+      <c r="F19" s="5">
+        <v>835</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H19" s="8">
+        <f t="shared" si="0"/>
+        <v>985.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="14.4">
+      <c r="A20" s="3">
+        <v>16</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="5">
+        <v>5</v>
+      </c>
+      <c r="E20" s="9">
+        <v>290</v>
+      </c>
+      <c r="F20" s="5">
+        <v>192</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H20" s="8">
+        <f t="shared" si="0"/>
+        <v>226.56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A21" s="3">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="5">
+        <v>5</v>
+      </c>
+      <c r="E21" s="9">
+        <v>700</v>
+      </c>
+      <c r="F21" s="5">
+        <v>454</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H21" s="8">
+        <f t="shared" si="0"/>
+        <v>535.72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A22" s="3">
+        <v>18</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="5">
+        <v>5</v>
+      </c>
+      <c r="E22" s="10">
+        <v>1350</v>
+      </c>
+      <c r="F22" s="5">
+        <v>873</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H22" s="8">
+        <f t="shared" si="0"/>
+        <v>1030.1399999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A23" s="3">
+        <v>19</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="9">
+        <v>400</v>
+      </c>
+      <c r="F23" s="5">
+        <v>231</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H23" s="8">
+        <f t="shared" si="0"/>
+        <v>272.58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A24" s="3">
+        <v>20</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H24" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A25" s="3">
+        <v>21</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="5">
+        <v>10</v>
+      </c>
+      <c r="E25" s="9">
+        <v>600</v>
+      </c>
+      <c r="F25" s="5">
+        <v>271</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H25" s="8">
+        <f t="shared" si="0"/>
+        <v>319.77999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A26" s="3">
+        <v>22</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="5">
+        <v>8</v>
+      </c>
+      <c r="E26" s="9">
+        <v>1080</v>
+      </c>
+      <c r="F26" s="5">
+        <v>488</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H26" s="8">
+        <f t="shared" si="0"/>
+        <v>575.84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A27" s="3">
+        <v>23</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="5">
+        <v>10</v>
+      </c>
+      <c r="E27" s="9">
+        <v>2550</v>
+      </c>
+      <c r="F27" s="5">
+        <v>1148</v>
+      </c>
+      <c r="G27" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H27" s="8">
+        <f t="shared" si="0"/>
+        <v>1354.6399999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A28" s="3">
+        <v>24</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="5">
+        <v>10</v>
+      </c>
+      <c r="E28" s="9">
+        <v>4950</v>
+      </c>
+      <c r="F28" s="5">
+        <v>2575</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H28" s="8">
+        <f t="shared" si="0"/>
+        <v>3038.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A29" s="3">
+        <v>25</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="5">
+        <v>10</v>
+      </c>
+      <c r="E29" s="9">
+        <v>490</v>
+      </c>
+      <c r="F29" s="5">
+        <v>188</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H29" s="8">
+        <f t="shared" si="0"/>
+        <v>221.84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A30" s="3">
+        <v>26</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="5">
+        <v>10</v>
+      </c>
+      <c r="E30" s="9">
+        <v>930</v>
+      </c>
+      <c r="F30" s="5">
+        <v>355</v>
+      </c>
+      <c r="G30" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H30" s="8">
+        <f t="shared" si="0"/>
+        <v>418.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A31" s="3">
+        <v>27</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="5">
+        <v>10</v>
+      </c>
+      <c r="E31" s="9">
+        <v>750</v>
+      </c>
+      <c r="F31" s="5">
+        <v>665</v>
+      </c>
+      <c r="G31" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H31" s="8">
+        <f t="shared" si="0"/>
+        <v>784.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A32" s="3">
+        <v>28</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="5">
+        <v>4</v>
+      </c>
+      <c r="E32" s="9">
+        <v>600</v>
+      </c>
+      <c r="F32" s="5">
+        <v>145</v>
+      </c>
+      <c r="G32" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H32" s="8">
+        <f t="shared" si="0"/>
+        <v>171.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A33" s="3">
+        <v>29</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="5">
+        <v>4</v>
+      </c>
+      <c r="E33" s="9">
+        <v>1450</v>
+      </c>
+      <c r="F33" s="5">
+        <v>350</v>
+      </c>
+      <c r="G33" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H33" s="8">
+        <f t="shared" si="0"/>
+        <v>413</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A34" s="3">
+        <v>30</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="5">
+        <v>4</v>
+      </c>
+      <c r="E34" s="9">
+        <v>2700</v>
+      </c>
+      <c r="F34" s="5">
+        <v>648</v>
+      </c>
+      <c r="G34" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H34" s="8">
+        <f t="shared" si="0"/>
+        <v>764.64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A35" s="3">
+        <v>31</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="5">
+        <v>10</v>
+      </c>
+      <c r="E35" s="9">
+        <v>374</v>
+      </c>
+      <c r="F35" s="5">
+        <v>175</v>
+      </c>
+      <c r="G35" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H35" s="8">
+        <f t="shared" si="0"/>
+        <v>206.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A36" s="3">
+        <v>32</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="5">
+        <v>5</v>
+      </c>
+      <c r="E36" s="9">
+        <v>1130</v>
+      </c>
+      <c r="F36" s="5">
+        <v>693</v>
+      </c>
+      <c r="G36" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H36" s="8">
+        <f t="shared" si="0"/>
+        <v>817.74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A37" s="3">
+        <v>33</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="E37" s="9">
+        <v>1310</v>
+      </c>
+      <c r="F37" s="5">
+        <v>782</v>
+      </c>
+      <c r="G37" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H37" s="8">
+        <f t="shared" si="0"/>
+        <v>922.76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A38" s="3">
+        <v>34</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="E38" s="9">
+        <v>2448</v>
+      </c>
+      <c r="F38" s="5">
+        <v>1426</v>
+      </c>
+      <c r="G38" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H38" s="8">
+        <f t="shared" si="0"/>
+        <v>1682.68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A39" s="3">
+        <v>35</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="5">
+        <v>4</v>
+      </c>
+      <c r="E39" s="9">
+        <v>195</v>
+      </c>
+      <c r="F39" s="5">
+        <v>104</v>
+      </c>
+      <c r="G39" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H39" s="8">
+        <f t="shared" si="0"/>
+        <v>122.72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A40" s="3">
+        <v>36</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="5">
+        <v>4</v>
+      </c>
+      <c r="E40" s="9">
+        <v>455</v>
+      </c>
+      <c r="F40" s="5">
+        <v>239</v>
+      </c>
+      <c r="G40" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H40" s="8">
+        <f t="shared" si="0"/>
+        <v>282.02</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A41" s="3">
+        <v>37</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" s="5">
+        <v>4</v>
+      </c>
+      <c r="E41" s="9">
+        <v>865</v>
+      </c>
+      <c r="F41" s="5">
+        <v>449</v>
+      </c>
+      <c r="G41" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H41" s="8">
+        <f t="shared" si="0"/>
+        <v>529.81999999999994</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A42" s="3">
+        <v>38</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="5">
+        <v>4</v>
+      </c>
+      <c r="E42" s="9">
+        <v>700</v>
+      </c>
+      <c r="F42" s="5">
+        <v>879</v>
+      </c>
+      <c r="G42" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H42" s="8">
+        <f t="shared" si="0"/>
+        <v>1037.22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A43" s="3">
+        <v>39</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="5">
+        <v>10</v>
+      </c>
+      <c r="E43" s="9">
+        <v>200</v>
+      </c>
+      <c r="F43" s="5">
+        <v>128</v>
+      </c>
+      <c r="G43" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H43" s="8">
+        <f t="shared" si="0"/>
+        <v>151.04</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A44" s="3">
+        <v>40</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="5">
+        <v>10</v>
+      </c>
+      <c r="E44" s="9">
+        <v>429</v>
+      </c>
+      <c r="F44" s="5">
+        <v>285</v>
+      </c>
+      <c r="G44" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H44" s="8">
+        <f t="shared" si="0"/>
+        <v>336.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A45" s="3">
+        <v>41</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="5">
+        <v>10</v>
+      </c>
+      <c r="E45" s="9">
+        <v>808</v>
+      </c>
+      <c r="F45" s="5">
+        <v>535</v>
+      </c>
+      <c r="G45" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H45" s="8">
+        <f t="shared" si="0"/>
+        <v>631.29999999999995</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A46" s="3">
+        <v>42</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" s="5">
+        <v>12</v>
+      </c>
+      <c r="E46" s="9">
+        <v>1584</v>
+      </c>
+      <c r="F46" s="5">
+        <v>1038</v>
+      </c>
+      <c r="G46" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H46" s="8">
+        <f t="shared" si="0"/>
+        <v>1224.8399999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A47" s="3">
+        <v>43</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47" s="5">
+        <v>10</v>
+      </c>
+      <c r="E47" s="9">
+        <v>7880</v>
+      </c>
+      <c r="F47" s="5">
+        <v>5472</v>
+      </c>
+      <c r="G47" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H47" s="8">
+        <f t="shared" si="0"/>
+        <v>6456.96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A48" s="3">
+        <v>44</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" s="5">
+        <v>10</v>
+      </c>
+      <c r="E48" s="9">
+        <v>124</v>
+      </c>
+      <c r="F48" s="5">
+        <v>68</v>
+      </c>
+      <c r="G48" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H48" s="8">
+        <f t="shared" si="0"/>
+        <v>80.239999999999995</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A49" s="3">
+        <v>45</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" s="5">
+        <v>10</v>
+      </c>
+      <c r="E49" s="9">
+        <v>250</v>
+      </c>
+      <c r="F49" s="5">
+        <v>137</v>
+      </c>
+      <c r="G49" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H49" s="8">
+        <f t="shared" si="0"/>
+        <v>161.66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A50" s="3">
+        <v>46</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" s="5">
+        <v>10</v>
+      </c>
+      <c r="E50" s="9">
+        <v>471</v>
+      </c>
+      <c r="F50" s="5">
+        <v>257</v>
+      </c>
+      <c r="G50" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H50" s="8">
+        <f t="shared" si="0"/>
+        <v>303.26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A51" s="3">
+        <v>47</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" s="5">
+        <v>10</v>
+      </c>
+      <c r="E51" s="9">
+        <v>906</v>
+      </c>
+      <c r="F51" s="5">
+        <v>494</v>
+      </c>
+      <c r="G51" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H51" s="8">
+        <f t="shared" si="0"/>
+        <v>582.91999999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A52" s="3">
+        <v>48</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" s="5">
+        <v>10</v>
+      </c>
+      <c r="E52" s="9">
+        <v>4465</v>
+      </c>
+      <c r="F52" s="5">
+        <v>2699</v>
+      </c>
+      <c r="G52" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H52" s="8">
+        <f t="shared" si="0"/>
+        <v>3184.82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A53" s="3">
+        <v>49</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" s="5">
+        <v>20</v>
+      </c>
+      <c r="E53" s="9">
+        <v>17720</v>
+      </c>
+      <c r="F53" s="5">
+        <v>10708</v>
+      </c>
+      <c r="G53" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H53" s="8">
+        <f t="shared" si="0"/>
+        <v>12635.44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A54" s="3">
+        <v>50</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54" s="5">
+        <v>4</v>
+      </c>
+      <c r="E54" s="9">
+        <v>305</v>
+      </c>
+      <c r="F54" s="5">
+        <v>156</v>
+      </c>
+      <c r="G54" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H54" s="8">
+        <f t="shared" si="0"/>
+        <v>184.07999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A55" s="3">
+        <v>51</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D55" s="5">
+        <v>4</v>
+      </c>
+      <c r="E55" s="9">
+        <v>575</v>
+      </c>
+      <c r="F55" s="5">
+        <v>292</v>
+      </c>
+      <c r="G55" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H55" s="8">
+        <f t="shared" si="0"/>
+        <v>344.56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A56" s="3">
+        <v>52</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="5">
+        <v>4</v>
+      </c>
+      <c r="E56" s="9">
+        <v>1090</v>
+      </c>
+      <c r="F56" s="3">
+        <v>467</v>
+      </c>
+      <c r="G56" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H56" s="8">
+        <f t="shared" si="0"/>
+        <v>551.05999999999995</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A57" s="3">
+        <v>53</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" s="5">
+        <v>10</v>
+      </c>
+      <c r="E57" s="9">
+        <v>375</v>
+      </c>
+      <c r="F57" s="3">
+        <v>227</v>
+      </c>
+      <c r="G57" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H57" s="8">
+        <f t="shared" si="0"/>
+        <v>267.86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A58" s="3">
+        <v>54</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D58" s="5">
+        <v>10</v>
+      </c>
+      <c r="E58" s="9">
+        <v>890</v>
+      </c>
+      <c r="F58" s="3">
+        <v>545</v>
+      </c>
+      <c r="G58" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H58" s="8">
+        <f t="shared" si="0"/>
+        <v>643.1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A59" s="3">
+        <v>55</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D59" s="5">
+        <v>10</v>
+      </c>
+      <c r="E59" s="9">
+        <v>1765</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1079</v>
+      </c>
+      <c r="G59" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H59" s="8">
+        <f t="shared" si="0"/>
+        <v>1273.22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A60" s="3">
+        <v>56</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D60" s="5">
+        <v>10</v>
+      </c>
+      <c r="E60" s="9">
+        <v>3500</v>
+      </c>
+      <c r="F60" s="3">
+        <v>2139</v>
+      </c>
+      <c r="G60" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H60" s="8">
+        <f t="shared" si="0"/>
+        <v>2524.02</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A61" s="3">
+        <v>57</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D61" s="5">
+        <v>10</v>
+      </c>
+      <c r="E61" s="9">
+        <v>1800</v>
+      </c>
+      <c r="F61" s="3">
+        <v>1088</v>
+      </c>
+      <c r="G61" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H61" s="8">
+        <f t="shared" si="0"/>
+        <v>1283.8399999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A62" s="3">
+        <v>58</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D62" s="5">
+        <v>10</v>
+      </c>
+      <c r="E62" s="9">
+        <v>8500</v>
+      </c>
+      <c r="F62" s="3">
+        <v>4985</v>
+      </c>
+      <c r="G62" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H62" s="8">
+        <f t="shared" si="0"/>
+        <v>5882.3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A63" s="3">
+        <v>59</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D63" s="5">
+        <v>10</v>
+      </c>
+      <c r="E63" s="9">
+        <v>500</v>
+      </c>
+      <c r="F63" s="3">
+        <v>280</v>
+      </c>
+      <c r="G63" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H63" s="8">
+        <f t="shared" si="0"/>
+        <v>330.4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A64" s="3">
+        <v>60</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D64" s="5">
+        <v>10</v>
+      </c>
+      <c r="E64" s="9">
+        <v>975</v>
+      </c>
+      <c r="F64" s="3">
+        <v>542</v>
+      </c>
+      <c r="G64" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H64" s="8">
+        <f t="shared" si="0"/>
+        <v>639.55999999999995</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A65" s="3">
+        <v>61</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D65" s="5">
+        <v>10</v>
+      </c>
+      <c r="E65" s="9">
+        <v>1900</v>
+      </c>
+      <c r="F65" s="3">
+        <v>1058</v>
+      </c>
+      <c r="G65" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H65" s="8">
+        <f t="shared" si="0"/>
+        <v>1248.44</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A66" s="3">
+        <v>62</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D66" s="5">
+        <v>10</v>
+      </c>
+      <c r="E66" s="9">
+        <v>100</v>
+      </c>
+      <c r="F66" s="3">
+        <v>44</v>
+      </c>
+      <c r="G66" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H66" s="8">
+        <f t="shared" si="0"/>
+        <v>51.92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A67" s="3">
+        <v>63</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D67" s="5">
+        <v>10</v>
+      </c>
+      <c r="E67" s="9">
+        <v>211</v>
+      </c>
+      <c r="F67" s="3">
+        <v>90</v>
+      </c>
+      <c r="G67" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H67" s="8">
+        <f t="shared" si="0"/>
+        <v>106.2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A68" s="3">
+        <v>64</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D68" s="5">
+        <v>10</v>
+      </c>
+      <c r="E68" s="9">
+        <v>402</v>
+      </c>
+      <c r="F68" s="3">
+        <v>170</v>
+      </c>
+      <c r="G68" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H68" s="8">
+        <f t="shared" si="0"/>
+        <v>200.6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A69" s="3">
+        <v>65</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D69" s="5">
+        <v>10</v>
+      </c>
+      <c r="E69" s="9">
+        <v>705</v>
+      </c>
+      <c r="F69" s="3">
+        <v>299</v>
+      </c>
+      <c r="G69" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H69" s="8">
+        <f t="shared" si="0"/>
+        <v>352.82</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A70" s="3">
+        <v>66</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D70" s="5">
+        <v>10</v>
+      </c>
+      <c r="E70" s="9">
+        <v>3050</v>
+      </c>
+      <c r="F70" s="3">
+        <v>1525</v>
+      </c>
+      <c r="G70" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H70" s="8">
+        <f t="shared" si="0"/>
+        <v>1799.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A71" s="3">
+        <v>67</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D71" s="5">
+        <v>12</v>
+      </c>
+      <c r="E71" s="9">
+        <v>900</v>
+      </c>
+      <c r="F71" s="3">
+        <v>555</v>
+      </c>
+      <c r="G71" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="H71" s="8">
+        <f t="shared" si="0"/>
+        <v>582.75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A72" s="3">
+        <v>68</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" s="5">
+        <v>12</v>
+      </c>
+      <c r="E72" s="9">
+        <v>4725</v>
+      </c>
+      <c r="F72" s="3">
+        <v>2624</v>
+      </c>
+      <c r="G72" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="H72" s="8">
+        <f t="shared" si="0"/>
+        <v>2755.2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A73" s="3">
+        <v>69</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D73" s="5">
+        <v>10</v>
+      </c>
+      <c r="E73" s="9">
+        <v>296</v>
+      </c>
+      <c r="F73" s="3">
+        <v>165</v>
+      </c>
+      <c r="G73" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="H73" s="8">
+        <f t="shared" si="0"/>
+        <v>184.8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A74" s="3">
+        <v>70</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D74" s="5">
+        <v>10</v>
+      </c>
+      <c r="E74" s="9">
+        <v>675</v>
+      </c>
+      <c r="F74" s="3">
+        <v>342</v>
+      </c>
+      <c r="G74" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="H74" s="8">
+        <f t="shared" si="0"/>
+        <v>383.04</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A75" s="3">
+        <v>71</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D75" s="5">
+        <v>10</v>
+      </c>
+      <c r="E75" s="9">
+        <v>1275</v>
+      </c>
+      <c r="F75" s="3">
+        <v>644</v>
+      </c>
+      <c r="G75" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="H75" s="8">
+        <f t="shared" si="0"/>
+        <v>721.28</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A76" s="3">
+        <v>72</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D76" s="5">
+        <v>10</v>
+      </c>
+      <c r="E76" s="9">
+        <v>2400</v>
+      </c>
+      <c r="F76" s="3">
+        <v>1210</v>
+      </c>
+      <c r="G76" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="H76" s="8">
+        <f t="shared" si="0"/>
+        <v>1355.2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A77" s="3">
+        <v>73</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D77" s="5">
+        <v>1.536</v>
+      </c>
+      <c r="E77" s="9">
+        <v>68</v>
+      </c>
+      <c r="F77" s="3">
+        <v>49</v>
+      </c>
+      <c r="G77" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="H77" s="8">
+        <f t="shared" si="0"/>
+        <v>51.45</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A78" s="3">
+        <v>74</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D78" s="5">
+        <v>1.536</v>
+      </c>
+      <c r="E78" s="9">
+        <v>792</v>
+      </c>
+      <c r="F78" s="3">
+        <v>549</v>
+      </c>
+      <c r="G78" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="H78" s="8">
+        <f t="shared" si="0"/>
+        <v>576.45000000000005</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A79" s="3">
+        <v>75</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D79" s="5">
+        <v>1.536</v>
+      </c>
+      <c r="E79" s="9">
+        <v>3600</v>
+      </c>
+      <c r="F79" s="3">
+        <v>2713</v>
+      </c>
+      <c r="G79" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="H79" s="8">
+        <f t="shared" si="0"/>
+        <v>2848.65</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A80" s="3">
+        <v>76</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D80" s="5">
+        <v>6</v>
+      </c>
+      <c r="E80" s="9">
+        <v>547</v>
+      </c>
+      <c r="F80" s="3">
+        <v>228</v>
+      </c>
+      <c r="G80" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H80" s="8">
+        <f t="shared" si="0"/>
+        <v>269.04000000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A81" s="3">
+        <v>77</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D81" s="5">
+        <v>6</v>
+      </c>
+      <c r="E81" s="9">
+        <v>1020</v>
+      </c>
+      <c r="F81" s="3">
+        <v>425</v>
+      </c>
+      <c r="G81" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H81" s="8">
+        <f t="shared" si="0"/>
+        <v>501.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A82" s="3">
+        <v>78</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D82" s="5">
+        <v>6</v>
+      </c>
+      <c r="E82" s="9">
+        <v>1920</v>
+      </c>
+      <c r="F82" s="3">
+        <v>796</v>
+      </c>
+      <c r="G82" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H82" s="8">
+        <f t="shared" si="0"/>
+        <v>939.28</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A83" s="3">
+        <v>79</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D83" s="5">
+        <v>7.2</v>
+      </c>
+      <c r="E83" s="9">
+        <v>588</v>
+      </c>
+      <c r="F83" s="3">
+        <v>312</v>
+      </c>
+      <c r="G83" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H83" s="8">
+        <f t="shared" si="0"/>
+        <v>368.15999999999997</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A84" s="3">
+        <v>80</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D84" s="5">
+        <v>7.2</v>
+      </c>
+      <c r="E84" s="9">
+        <v>1152</v>
+      </c>
+      <c r="F84" s="3">
+        <v>608</v>
+      </c>
+      <c r="G84" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H84" s="8">
+        <f t="shared" si="0"/>
+        <v>717.44</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A85" s="3">
+        <v>81</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D85" s="5">
+        <v>7.2</v>
+      </c>
+      <c r="E85" s="9">
+        <v>2256</v>
+      </c>
+      <c r="F85" s="3">
+        <v>1210</v>
+      </c>
+      <c r="G85" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H85" s="8">
+        <f t="shared" si="0"/>
+        <v>1427.8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A86" s="3">
+        <v>82</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D86" s="5">
+        <v>10</v>
+      </c>
+      <c r="E86" s="9">
+        <v>400</v>
+      </c>
+      <c r="F86" s="3">
+        <v>118</v>
+      </c>
+      <c r="G86" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H86" s="8">
+        <f t="shared" si="0"/>
+        <v>139.24</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A87" s="3">
+        <v>83</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D87" s="5">
+        <v>0.92</v>
+      </c>
+      <c r="E87" s="9">
+        <v>2116</v>
+      </c>
+      <c r="F87" s="3">
+        <v>719</v>
+      </c>
+      <c r="G87" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H87" s="8">
+        <f t="shared" si="0"/>
+        <v>848.42</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A88" s="3">
+        <v>84</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D88" s="5">
+        <v>0.92</v>
+      </c>
+      <c r="E88" s="9">
+        <v>4088</v>
+      </c>
+      <c r="F88" s="3">
+        <v>1681</v>
+      </c>
+      <c r="G88" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H88" s="8">
+        <f t="shared" si="0"/>
+        <v>1983.58</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A89" s="3">
+        <v>85</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D89" s="5">
+        <v>10</v>
+      </c>
+      <c r="E89" s="9">
+        <v>1038</v>
+      </c>
+      <c r="F89" s="3">
+        <v>405</v>
+      </c>
+      <c r="G89" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H89" s="8">
+        <f t="shared" si="0"/>
+        <v>477.9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A90" s="3">
+        <v>86</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D90" s="5">
+        <v>10</v>
+      </c>
+      <c r="E90" s="9">
+        <v>2040</v>
+      </c>
+      <c r="F90" s="3">
+        <v>794</v>
+      </c>
+      <c r="G90" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H90" s="8">
+        <f t="shared" si="0"/>
+        <v>936.92</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A91" s="3">
+        <v>87</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D91" s="5">
+        <v>4</v>
+      </c>
+      <c r="E91" s="9">
+        <v>380</v>
+      </c>
+      <c r="F91" s="3">
+        <v>237</v>
+      </c>
+      <c r="G91" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H91" s="8">
+        <f t="shared" si="0"/>
+        <v>279.65999999999997</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A92" s="3">
+        <v>88</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D92" s="5">
+        <v>4</v>
+      </c>
+      <c r="E92" s="9">
+        <v>1780</v>
+      </c>
+      <c r="F92" s="3">
+        <v>1105</v>
+      </c>
+      <c r="G92" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="H92" s="8">
+        <f t="shared" si="0"/>
+        <v>1303.9000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A93" s="3">
+        <v>89</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="C93" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D93" s="5">
         <v>4</v>

--- a/data/prices.xlsx
+++ b/data/prices.xlsx
@@ -8,23 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7C3768-9D5A-4A2F-9400-DBFBD573669D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58376BBC-E0A4-48B0-8404-471E6AF8BE59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SAPTHAGIRI NAGAMANGALA" sheetId="1" r:id="rId1"/>
-    <sheet name="MANJUNATHA AGRO MANDYA" sheetId="2" r:id="rId2"/>
+    <sheet name="Akshatha Agro Agencies" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="92">
-  <si>
-    <t>SAPATHAGIRI AGRO AGECNIES NAGAMANGALA</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="91">
   <si>
     <t xml:space="preserve"> S NO</t>
   </si>
@@ -293,10 +289,10 @@
     <t>800 GM</t>
   </si>
   <si>
-    <t>MANJUNATHA AGRO AGENCIES MANDYA</t>
-  </si>
-  <si>
     <t>PRODUCT NAME</t>
+  </si>
+  <si>
+    <t>Akshatha Agro Agencies</t>
   </si>
 </sst>
 </file>
@@ -699,2471 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="7" width="8.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" customWidth="1"/>
-    <col min="9" max="11" width="8.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:8" ht="14.4">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="4" spans="1:8" ht="14.4">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.4">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5">
-        <v>5.4</v>
-      </c>
-      <c r="E5" s="6">
-        <v>1075</v>
-      </c>
-      <c r="F5" s="5">
-        <v>524</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H5" s="8">
-        <f t="shared" ref="H5:H93" si="0">F5+(F5*G5)</f>
-        <v>618.31999999999994</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="14.4">
-      <c r="A6" s="3">
-        <v>2</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="5">
-        <v>5.4</v>
-      </c>
-      <c r="E6" s="9">
-        <v>2121</v>
-      </c>
-      <c r="F6" s="5">
-        <v>1031</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H6" s="8">
-        <f t="shared" si="0"/>
-        <v>1216.58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="14.4">
-      <c r="A7" s="3">
-        <v>3</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="5">
-        <v>6</v>
-      </c>
-      <c r="E7" s="9">
-        <v>2808</v>
-      </c>
-      <c r="F7" s="5">
-        <v>1365</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H7" s="8">
-        <f t="shared" si="0"/>
-        <v>1610.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="14.4">
-      <c r="A8" s="3">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="5">
-        <v>5.6</v>
-      </c>
-      <c r="E8" s="9">
-        <v>3268</v>
-      </c>
-      <c r="F8" s="5">
-        <v>1588</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H8" s="8">
-        <f t="shared" si="0"/>
-        <v>1873.84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="14.4">
-      <c r="A9" s="3">
-        <v>5</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="5">
-        <v>6</v>
-      </c>
-      <c r="E9" s="9">
-        <v>3455</v>
-      </c>
-      <c r="F9" s="5">
-        <v>1679</v>
-      </c>
-      <c r="G9" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H9" s="8">
-        <f t="shared" si="0"/>
-        <v>1981.22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="14.4">
-      <c r="A10" s="3">
-        <v>6</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="5">
-        <v>7.2</v>
-      </c>
-      <c r="E10" s="9">
-        <v>4146</v>
-      </c>
-      <c r="F10" s="5">
-        <v>2014</v>
-      </c>
-      <c r="G10" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H10" s="8">
-        <f t="shared" si="0"/>
-        <v>2376.52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="14.4">
-      <c r="A11" s="3">
-        <v>7</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="5">
-        <v>3</v>
-      </c>
-      <c r="E11" s="9">
-        <v>220</v>
-      </c>
-      <c r="F11" s="5">
-        <v>77</v>
-      </c>
-      <c r="G11" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H11" s="8">
-        <f t="shared" si="0"/>
-        <v>90.86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="14.4">
-      <c r="A12" s="3">
-        <v>8</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="5">
-        <v>6</v>
-      </c>
-      <c r="E12" s="9">
-        <v>597</v>
-      </c>
-      <c r="F12" s="5">
-        <v>204</v>
-      </c>
-      <c r="G12" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H12" s="8">
-        <f t="shared" si="0"/>
-        <v>240.72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="14.4">
-      <c r="A13" s="3">
-        <v>9</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="5">
-        <v>6</v>
-      </c>
-      <c r="E13" s="9">
-        <v>1130</v>
-      </c>
-      <c r="F13" s="5">
-        <v>384</v>
-      </c>
-      <c r="G13" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H13" s="8">
-        <f t="shared" si="0"/>
-        <v>453.12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="14.4">
-      <c r="A14" s="3">
-        <v>10</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="5">
-        <v>6</v>
-      </c>
-      <c r="E14" s="9">
-        <v>2792</v>
-      </c>
-      <c r="F14" s="5">
-        <v>946</v>
-      </c>
-      <c r="G14" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H14" s="8">
-        <f t="shared" si="0"/>
-        <v>1116.28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="14.4">
-      <c r="A15" s="3">
-        <v>11</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="5">
-        <v>24</v>
-      </c>
-      <c r="E15" s="9">
-        <v>267</v>
-      </c>
-      <c r="F15" s="5">
-        <v>132</v>
-      </c>
-      <c r="G15" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H15" s="8">
-        <f t="shared" si="0"/>
-        <v>155.76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="14.4">
-      <c r="A16" s="3">
-        <v>12</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="5">
-        <v>24</v>
-      </c>
-      <c r="E16" s="9">
-        <v>996</v>
-      </c>
-      <c r="F16" s="5">
-        <v>484</v>
-      </c>
-      <c r="G16" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H16" s="8">
-        <f t="shared" si="0"/>
-        <v>571.12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="14.4">
-      <c r="A17" s="3">
-        <v>13</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="5">
-        <v>1.8</v>
-      </c>
-      <c r="E17" s="9">
-        <v>225</v>
-      </c>
-      <c r="F17" s="5">
-        <v>172</v>
-      </c>
-      <c r="G17" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H17" s="8">
-        <f t="shared" si="0"/>
-        <v>202.96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="14.4">
-      <c r="A18" s="3">
-        <v>14</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="5">
-        <v>3.4</v>
-      </c>
-      <c r="E18" s="9">
-        <v>610</v>
-      </c>
-      <c r="F18" s="5">
-        <v>428</v>
-      </c>
-      <c r="G18" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H18" s="8">
-        <f t="shared" si="0"/>
-        <v>505.03999999999996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="14.4">
-      <c r="A19" s="3">
-        <v>15</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="5">
-        <v>6.8</v>
-      </c>
-      <c r="E19" s="10">
-        <v>1380</v>
-      </c>
-      <c r="F19" s="5">
-        <v>835</v>
-      </c>
-      <c r="G19" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H19" s="8">
-        <f t="shared" si="0"/>
-        <v>985.3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="14.4">
-      <c r="A20" s="3">
-        <v>16</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="5">
-        <v>5</v>
-      </c>
-      <c r="E20" s="9">
-        <v>290</v>
-      </c>
-      <c r="F20" s="5">
-        <v>192</v>
-      </c>
-      <c r="G20" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H20" s="8">
-        <f t="shared" si="0"/>
-        <v>226.56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A21" s="3">
-        <v>17</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="5">
-        <v>5</v>
-      </c>
-      <c r="E21" s="9">
-        <v>700</v>
-      </c>
-      <c r="F21" s="5">
-        <v>454</v>
-      </c>
-      <c r="G21" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H21" s="8">
-        <f t="shared" si="0"/>
-        <v>535.72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A22" s="3">
-        <v>18</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="5">
-        <v>5</v>
-      </c>
-      <c r="E22" s="10">
-        <v>1350</v>
-      </c>
-      <c r="F22" s="5">
-        <v>873</v>
-      </c>
-      <c r="G22" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H22" s="8">
-        <f t="shared" si="0"/>
-        <v>1030.1399999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A23" s="3">
-        <v>19</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="9">
-        <v>400</v>
-      </c>
-      <c r="F23" s="5">
-        <v>231</v>
-      </c>
-      <c r="G23" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H23" s="8">
-        <f t="shared" si="0"/>
-        <v>272.58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A24" s="3">
-        <v>20</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H24" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A25" s="3">
-        <v>21</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="5">
-        <v>10</v>
-      </c>
-      <c r="E25" s="9">
-        <v>600</v>
-      </c>
-      <c r="F25" s="5">
-        <v>271</v>
-      </c>
-      <c r="G25" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H25" s="8">
-        <f t="shared" si="0"/>
-        <v>319.77999999999997</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A26" s="3">
-        <v>22</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="5">
-        <v>8</v>
-      </c>
-      <c r="E26" s="9">
-        <v>1080</v>
-      </c>
-      <c r="F26" s="5">
-        <v>488</v>
-      </c>
-      <c r="G26" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H26" s="8">
-        <f t="shared" si="0"/>
-        <v>575.84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A27" s="3">
-        <v>23</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="5">
-        <v>10</v>
-      </c>
-      <c r="E27" s="9">
-        <v>2550</v>
-      </c>
-      <c r="F27" s="5">
-        <v>1148</v>
-      </c>
-      <c r="G27" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H27" s="8">
-        <f t="shared" si="0"/>
-        <v>1354.6399999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A28" s="3">
-        <v>24</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="5">
-        <v>10</v>
-      </c>
-      <c r="E28" s="9">
-        <v>4950</v>
-      </c>
-      <c r="F28" s="5">
-        <v>2575</v>
-      </c>
-      <c r="G28" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H28" s="8">
-        <f t="shared" si="0"/>
-        <v>3038.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A29" s="3">
-        <v>25</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="5">
-        <v>10</v>
-      </c>
-      <c r="E29" s="9">
-        <v>490</v>
-      </c>
-      <c r="F29" s="5">
-        <v>188</v>
-      </c>
-      <c r="G29" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H29" s="8">
-        <f t="shared" si="0"/>
-        <v>221.84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A30" s="3">
-        <v>26</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="5">
-        <v>10</v>
-      </c>
-      <c r="E30" s="9">
-        <v>930</v>
-      </c>
-      <c r="F30" s="5">
-        <v>355</v>
-      </c>
-      <c r="G30" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H30" s="8">
-        <f t="shared" si="0"/>
-        <v>418.9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A31" s="3">
-        <v>27</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="5">
-        <v>10</v>
-      </c>
-      <c r="E31" s="9">
-        <v>750</v>
-      </c>
-      <c r="F31" s="5">
-        <v>665</v>
-      </c>
-      <c r="G31" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H31" s="8">
-        <f t="shared" si="0"/>
-        <v>784.7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A32" s="3">
-        <v>28</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="5">
-        <v>4</v>
-      </c>
-      <c r="E32" s="9">
-        <v>600</v>
-      </c>
-      <c r="F32" s="5">
-        <v>145</v>
-      </c>
-      <c r="G32" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H32" s="8">
-        <f t="shared" si="0"/>
-        <v>171.1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A33" s="3">
-        <v>29</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="5">
-        <v>4</v>
-      </c>
-      <c r="E33" s="9">
-        <v>1450</v>
-      </c>
-      <c r="F33" s="5">
-        <v>350</v>
-      </c>
-      <c r="G33" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H33" s="8">
-        <f t="shared" si="0"/>
-        <v>413</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A34" s="3">
-        <v>30</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" s="5">
-        <v>4</v>
-      </c>
-      <c r="E34" s="9">
-        <v>2700</v>
-      </c>
-      <c r="F34" s="5">
-        <v>648</v>
-      </c>
-      <c r="G34" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H34" s="8">
-        <f t="shared" si="0"/>
-        <v>764.64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A35" s="3">
-        <v>31</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D35" s="5">
-        <v>10</v>
-      </c>
-      <c r="E35" s="9">
-        <v>374</v>
-      </c>
-      <c r="F35" s="5">
-        <v>175</v>
-      </c>
-      <c r="G35" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H35" s="8">
-        <f t="shared" si="0"/>
-        <v>206.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A36" s="3">
-        <v>32</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="5">
-        <v>5</v>
-      </c>
-      <c r="E36" s="9">
-        <v>1130</v>
-      </c>
-      <c r="F36" s="5">
-        <v>693</v>
-      </c>
-      <c r="G36" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H36" s="8">
-        <f t="shared" si="0"/>
-        <v>817.74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A37" s="3">
-        <v>33</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="E37" s="9">
-        <v>1310</v>
-      </c>
-      <c r="F37" s="5">
-        <v>782</v>
-      </c>
-      <c r="G37" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H37" s="8">
-        <f t="shared" si="0"/>
-        <v>922.76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A38" s="3">
-        <v>34</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D38" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="E38" s="9">
-        <v>2448</v>
-      </c>
-      <c r="F38" s="5">
-        <v>1426</v>
-      </c>
-      <c r="G38" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H38" s="8">
-        <f t="shared" si="0"/>
-        <v>1682.68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A39" s="3">
-        <v>35</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39" s="5">
-        <v>4</v>
-      </c>
-      <c r="E39" s="9">
-        <v>195</v>
-      </c>
-      <c r="F39" s="5">
-        <v>104</v>
-      </c>
-      <c r="G39" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H39" s="8">
-        <f t="shared" si="0"/>
-        <v>122.72</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A40" s="3">
-        <v>36</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D40" s="5">
-        <v>4</v>
-      </c>
-      <c r="E40" s="9">
-        <v>455</v>
-      </c>
-      <c r="F40" s="5">
-        <v>239</v>
-      </c>
-      <c r="G40" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H40" s="8">
-        <f t="shared" si="0"/>
-        <v>282.02</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A41" s="3">
-        <v>37</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D41" s="5">
-        <v>4</v>
-      </c>
-      <c r="E41" s="9">
-        <v>865</v>
-      </c>
-      <c r="F41" s="5">
-        <v>449</v>
-      </c>
-      <c r="G41" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H41" s="8">
-        <f t="shared" si="0"/>
-        <v>529.81999999999994</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A42" s="3">
-        <v>38</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D42" s="5">
-        <v>4</v>
-      </c>
-      <c r="E42" s="9">
-        <v>700</v>
-      </c>
-      <c r="F42" s="5">
-        <v>879</v>
-      </c>
-      <c r="G42" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H42" s="8">
-        <f t="shared" si="0"/>
-        <v>1037.22</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A43" s="3">
-        <v>39</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D43" s="5">
-        <v>10</v>
-      </c>
-      <c r="E43" s="9">
-        <v>200</v>
-      </c>
-      <c r="F43" s="5">
-        <v>128</v>
-      </c>
-      <c r="G43" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H43" s="8">
-        <f t="shared" si="0"/>
-        <v>151.04</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A44" s="3">
-        <v>40</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D44" s="5">
-        <v>10</v>
-      </c>
-      <c r="E44" s="9">
-        <v>429</v>
-      </c>
-      <c r="F44" s="5">
-        <v>285</v>
-      </c>
-      <c r="G44" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H44" s="8">
-        <f t="shared" si="0"/>
-        <v>336.3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A45" s="3">
-        <v>41</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D45" s="5">
-        <v>10</v>
-      </c>
-      <c r="E45" s="9">
-        <v>808</v>
-      </c>
-      <c r="F45" s="5">
-        <v>535</v>
-      </c>
-      <c r="G45" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H45" s="8">
-        <f t="shared" si="0"/>
-        <v>631.29999999999995</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A46" s="3">
-        <v>42</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D46" s="5">
-        <v>12</v>
-      </c>
-      <c r="E46" s="9">
-        <v>1584</v>
-      </c>
-      <c r="F46" s="5">
-        <v>1038</v>
-      </c>
-      <c r="G46" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H46" s="8">
-        <f t="shared" si="0"/>
-        <v>1224.8399999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A47" s="3">
-        <v>43</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D47" s="5">
-        <v>10</v>
-      </c>
-      <c r="E47" s="9">
-        <v>7880</v>
-      </c>
-      <c r="F47" s="5">
-        <v>5472</v>
-      </c>
-      <c r="G47" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H47" s="8">
-        <f t="shared" si="0"/>
-        <v>6456.96</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A48" s="3">
-        <v>44</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D48" s="5">
-        <v>10</v>
-      </c>
-      <c r="E48" s="9">
-        <v>124</v>
-      </c>
-      <c r="F48" s="5">
-        <v>68</v>
-      </c>
-      <c r="G48" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H48" s="8">
-        <f t="shared" si="0"/>
-        <v>80.239999999999995</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A49" s="3">
-        <v>45</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D49" s="5">
-        <v>10</v>
-      </c>
-      <c r="E49" s="9">
-        <v>250</v>
-      </c>
-      <c r="F49" s="5">
-        <v>137</v>
-      </c>
-      <c r="G49" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H49" s="8">
-        <f t="shared" si="0"/>
-        <v>161.66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A50" s="3">
-        <v>46</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D50" s="5">
-        <v>10</v>
-      </c>
-      <c r="E50" s="9">
-        <v>471</v>
-      </c>
-      <c r="F50" s="5">
-        <v>257</v>
-      </c>
-      <c r="G50" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H50" s="8">
-        <f t="shared" si="0"/>
-        <v>303.26</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A51" s="3">
-        <v>47</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D51" s="5">
-        <v>10</v>
-      </c>
-      <c r="E51" s="9">
-        <v>906</v>
-      </c>
-      <c r="F51" s="5">
-        <v>494</v>
-      </c>
-      <c r="G51" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H51" s="8">
-        <f t="shared" si="0"/>
-        <v>582.91999999999996</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A52" s="3">
-        <v>48</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D52" s="5">
-        <v>10</v>
-      </c>
-      <c r="E52" s="9">
-        <v>4465</v>
-      </c>
-      <c r="F52" s="5">
-        <v>2699</v>
-      </c>
-      <c r="G52" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H52" s="8">
-        <f t="shared" si="0"/>
-        <v>3184.82</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A53" s="3">
-        <v>49</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D53" s="5">
-        <v>20</v>
-      </c>
-      <c r="E53" s="9">
-        <v>17720</v>
-      </c>
-      <c r="F53" s="5">
-        <v>10708</v>
-      </c>
-      <c r="G53" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H53" s="8">
-        <f t="shared" si="0"/>
-        <v>12635.44</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A54" s="3">
-        <v>50</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D54" s="5">
-        <v>4</v>
-      </c>
-      <c r="E54" s="9">
-        <v>305</v>
-      </c>
-      <c r="F54" s="5">
-        <v>156</v>
-      </c>
-      <c r="G54" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H54" s="8">
-        <f t="shared" si="0"/>
-        <v>184.07999999999998</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A55" s="3">
-        <v>51</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D55" s="5">
-        <v>4</v>
-      </c>
-      <c r="E55" s="9">
-        <v>575</v>
-      </c>
-      <c r="F55" s="5">
-        <v>292</v>
-      </c>
-      <c r="G55" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H55" s="8">
-        <f t="shared" si="0"/>
-        <v>344.56</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A56" s="3">
-        <v>52</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D56" s="5">
-        <v>4</v>
-      </c>
-      <c r="E56" s="9">
-        <v>1090</v>
-      </c>
-      <c r="F56" s="3">
-        <v>467</v>
-      </c>
-      <c r="G56" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H56" s="8">
-        <f t="shared" si="0"/>
-        <v>551.05999999999995</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A57" s="3">
-        <v>53</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D57" s="5">
-        <v>10</v>
-      </c>
-      <c r="E57" s="9">
-        <v>375</v>
-      </c>
-      <c r="F57" s="3">
-        <v>227</v>
-      </c>
-      <c r="G57" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H57" s="8">
-        <f t="shared" si="0"/>
-        <v>267.86</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A58" s="3">
-        <v>54</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D58" s="5">
-        <v>10</v>
-      </c>
-      <c r="E58" s="9">
-        <v>890</v>
-      </c>
-      <c r="F58" s="3">
-        <v>545</v>
-      </c>
-      <c r="G58" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H58" s="8">
-        <f t="shared" si="0"/>
-        <v>643.1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A59" s="3">
-        <v>55</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D59" s="5">
-        <v>10</v>
-      </c>
-      <c r="E59" s="9">
-        <v>1765</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1079</v>
-      </c>
-      <c r="G59" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H59" s="8">
-        <f t="shared" si="0"/>
-        <v>1273.22</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A60" s="3">
-        <v>56</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D60" s="5">
-        <v>10</v>
-      </c>
-      <c r="E60" s="9">
-        <v>3500</v>
-      </c>
-      <c r="F60" s="3">
-        <v>2139</v>
-      </c>
-      <c r="G60" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H60" s="8">
-        <f t="shared" si="0"/>
-        <v>2524.02</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A61" s="3">
-        <v>57</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D61" s="5">
-        <v>10</v>
-      </c>
-      <c r="E61" s="9">
-        <v>1800</v>
-      </c>
-      <c r="F61" s="3">
-        <v>1088</v>
-      </c>
-      <c r="G61" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H61" s="8">
-        <f t="shared" si="0"/>
-        <v>1283.8399999999999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A62" s="3">
-        <v>58</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D62" s="5">
-        <v>10</v>
-      </c>
-      <c r="E62" s="9">
-        <v>8500</v>
-      </c>
-      <c r="F62" s="3">
-        <v>4985</v>
-      </c>
-      <c r="G62" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H62" s="8">
-        <f t="shared" si="0"/>
-        <v>5882.3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A63" s="3">
-        <v>59</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D63" s="5">
-        <v>10</v>
-      </c>
-      <c r="E63" s="9">
-        <v>500</v>
-      </c>
-      <c r="F63" s="3">
-        <v>280</v>
-      </c>
-      <c r="G63" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H63" s="8">
-        <f t="shared" si="0"/>
-        <v>330.4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A64" s="3">
-        <v>60</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D64" s="5">
-        <v>10</v>
-      </c>
-      <c r="E64" s="9">
-        <v>975</v>
-      </c>
-      <c r="F64" s="3">
-        <v>542</v>
-      </c>
-      <c r="G64" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H64" s="8">
-        <f t="shared" si="0"/>
-        <v>639.55999999999995</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A65" s="3">
-        <v>61</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D65" s="5">
-        <v>10</v>
-      </c>
-      <c r="E65" s="9">
-        <v>1900</v>
-      </c>
-      <c r="F65" s="3">
-        <v>1058</v>
-      </c>
-      <c r="G65" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H65" s="8">
-        <f t="shared" si="0"/>
-        <v>1248.44</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A66" s="3">
-        <v>62</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D66" s="5">
-        <v>10</v>
-      </c>
-      <c r="E66" s="9">
-        <v>100</v>
-      </c>
-      <c r="F66" s="3">
-        <v>44</v>
-      </c>
-      <c r="G66" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H66" s="8">
-        <f t="shared" si="0"/>
-        <v>51.92</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A67" s="3">
-        <v>63</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D67" s="5">
-        <v>10</v>
-      </c>
-      <c r="E67" s="9">
-        <v>211</v>
-      </c>
-      <c r="F67" s="3">
-        <v>90</v>
-      </c>
-      <c r="G67" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H67" s="8">
-        <f t="shared" si="0"/>
-        <v>106.2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A68" s="3">
-        <v>64</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D68" s="5">
-        <v>10</v>
-      </c>
-      <c r="E68" s="9">
-        <v>402</v>
-      </c>
-      <c r="F68" s="3">
-        <v>170</v>
-      </c>
-      <c r="G68" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H68" s="8">
-        <f t="shared" si="0"/>
-        <v>200.6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A69" s="3">
-        <v>65</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D69" s="5">
-        <v>10</v>
-      </c>
-      <c r="E69" s="9">
-        <v>705</v>
-      </c>
-      <c r="F69" s="3">
-        <v>299</v>
-      </c>
-      <c r="G69" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H69" s="8">
-        <f t="shared" si="0"/>
-        <v>352.82</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A70" s="3">
-        <v>66</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D70" s="5">
-        <v>10</v>
-      </c>
-      <c r="E70" s="9">
-        <v>3050</v>
-      </c>
-      <c r="F70" s="3">
-        <v>1525</v>
-      </c>
-      <c r="G70" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H70" s="8">
-        <f t="shared" si="0"/>
-        <v>1799.5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A71" s="3">
-        <v>67</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D71" s="5">
-        <v>12</v>
-      </c>
-      <c r="E71" s="9">
-        <v>900</v>
-      </c>
-      <c r="F71" s="3">
-        <v>555</v>
-      </c>
-      <c r="G71" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="H71" s="8">
-        <f t="shared" si="0"/>
-        <v>582.75</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A72" s="3">
-        <v>68</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D72" s="5">
-        <v>12</v>
-      </c>
-      <c r="E72" s="9">
-        <v>4725</v>
-      </c>
-      <c r="F72" s="3">
-        <v>2624</v>
-      </c>
-      <c r="G72" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="H72" s="8">
-        <f t="shared" si="0"/>
-        <v>2755.2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A73" s="3">
-        <v>69</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D73" s="5">
-        <v>10</v>
-      </c>
-      <c r="E73" s="9">
-        <v>296</v>
-      </c>
-      <c r="F73" s="3">
-        <v>165</v>
-      </c>
-      <c r="G73" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="H73" s="8">
-        <f t="shared" si="0"/>
-        <v>184.8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A74" s="3">
-        <v>70</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D74" s="5">
-        <v>10</v>
-      </c>
-      <c r="E74" s="9">
-        <v>675</v>
-      </c>
-      <c r="F74" s="3">
-        <v>342</v>
-      </c>
-      <c r="G74" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="H74" s="8">
-        <f t="shared" si="0"/>
-        <v>383.04</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A75" s="3">
-        <v>71</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D75" s="5">
-        <v>10</v>
-      </c>
-      <c r="E75" s="9">
-        <v>1275</v>
-      </c>
-      <c r="F75" s="3">
-        <v>644</v>
-      </c>
-      <c r="G75" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="H75" s="8">
-        <f t="shared" si="0"/>
-        <v>721.28</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A76" s="3">
-        <v>72</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D76" s="5">
-        <v>10</v>
-      </c>
-      <c r="E76" s="9">
-        <v>2400</v>
-      </c>
-      <c r="F76" s="3">
-        <v>1210</v>
-      </c>
-      <c r="G76" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="H76" s="8">
-        <f t="shared" si="0"/>
-        <v>1355.2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A77" s="3">
-        <v>73</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D77" s="5">
-        <v>1.536</v>
-      </c>
-      <c r="E77" s="9">
-        <v>68</v>
-      </c>
-      <c r="F77" s="3">
-        <v>49</v>
-      </c>
-      <c r="G77" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="H77" s="8">
-        <f t="shared" si="0"/>
-        <v>51.45</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A78" s="3">
-        <v>74</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D78" s="5">
-        <v>1.536</v>
-      </c>
-      <c r="E78" s="9">
-        <v>792</v>
-      </c>
-      <c r="F78" s="3">
-        <v>549</v>
-      </c>
-      <c r="G78" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="H78" s="8">
-        <f t="shared" si="0"/>
-        <v>576.45000000000005</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A79" s="3">
-        <v>75</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D79" s="5">
-        <v>1.536</v>
-      </c>
-      <c r="E79" s="9">
-        <v>3600</v>
-      </c>
-      <c r="F79" s="3">
-        <v>2713</v>
-      </c>
-      <c r="G79" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="H79" s="8">
-        <f t="shared" si="0"/>
-        <v>2848.65</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A80" s="3">
-        <v>76</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D80" s="5">
-        <v>6</v>
-      </c>
-      <c r="E80" s="9">
-        <v>547</v>
-      </c>
-      <c r="F80" s="3">
-        <v>228</v>
-      </c>
-      <c r="G80" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H80" s="8">
-        <f t="shared" si="0"/>
-        <v>269.04000000000002</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A81" s="3">
-        <v>77</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D81" s="5">
-        <v>6</v>
-      </c>
-      <c r="E81" s="9">
-        <v>1020</v>
-      </c>
-      <c r="F81" s="3">
-        <v>425</v>
-      </c>
-      <c r="G81" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H81" s="8">
-        <f t="shared" si="0"/>
-        <v>501.5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A82" s="3">
-        <v>78</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D82" s="5">
-        <v>6</v>
-      </c>
-      <c r="E82" s="9">
-        <v>1920</v>
-      </c>
-      <c r="F82" s="3">
-        <v>796</v>
-      </c>
-      <c r="G82" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H82" s="8">
-        <f t="shared" si="0"/>
-        <v>939.28</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A83" s="3">
-        <v>79</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D83" s="5">
-        <v>7.2</v>
-      </c>
-      <c r="E83" s="9">
-        <v>588</v>
-      </c>
-      <c r="F83" s="3">
-        <v>312</v>
-      </c>
-      <c r="G83" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H83" s="8">
-        <f t="shared" si="0"/>
-        <v>368.15999999999997</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A84" s="3">
-        <v>80</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D84" s="5">
-        <v>7.2</v>
-      </c>
-      <c r="E84" s="9">
-        <v>1152</v>
-      </c>
-      <c r="F84" s="3">
-        <v>608</v>
-      </c>
-      <c r="G84" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H84" s="8">
-        <f t="shared" si="0"/>
-        <v>717.44</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A85" s="3">
-        <v>81</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D85" s="5">
-        <v>7.2</v>
-      </c>
-      <c r="E85" s="9">
-        <v>2256</v>
-      </c>
-      <c r="F85" s="3">
-        <v>1210</v>
-      </c>
-      <c r="G85" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H85" s="8">
-        <f t="shared" si="0"/>
-        <v>1427.8</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A86" s="3">
-        <v>82</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D86" s="5">
-        <v>10</v>
-      </c>
-      <c r="E86" s="9">
-        <v>400</v>
-      </c>
-      <c r="F86" s="3">
-        <v>118</v>
-      </c>
-      <c r="G86" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H86" s="8">
-        <f t="shared" si="0"/>
-        <v>139.24</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A87" s="3">
-        <v>83</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D87" s="5">
-        <v>0.92</v>
-      </c>
-      <c r="E87" s="9">
-        <v>2116</v>
-      </c>
-      <c r="F87" s="3">
-        <v>719</v>
-      </c>
-      <c r="G87" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H87" s="8">
-        <f t="shared" si="0"/>
-        <v>848.42</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A88" s="3">
-        <v>84</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D88" s="5">
-        <v>0.92</v>
-      </c>
-      <c r="E88" s="9">
-        <v>4088</v>
-      </c>
-      <c r="F88" s="3">
-        <v>1681</v>
-      </c>
-      <c r="G88" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H88" s="8">
-        <f t="shared" si="0"/>
-        <v>1983.58</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A89" s="3">
-        <v>85</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D89" s="5">
-        <v>10</v>
-      </c>
-      <c r="E89" s="9">
-        <v>1038</v>
-      </c>
-      <c r="F89" s="3">
-        <v>405</v>
-      </c>
-      <c r="G89" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H89" s="8">
-        <f t="shared" si="0"/>
-        <v>477.9</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A90" s="3">
-        <v>86</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D90" s="5">
-        <v>10</v>
-      </c>
-      <c r="E90" s="9">
-        <v>2040</v>
-      </c>
-      <c r="F90" s="3">
-        <v>794</v>
-      </c>
-      <c r="G90" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H90" s="8">
-        <f t="shared" si="0"/>
-        <v>936.92</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A91" s="3">
-        <v>87</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D91" s="5">
-        <v>4</v>
-      </c>
-      <c r="E91" s="9">
-        <v>380</v>
-      </c>
-      <c r="F91" s="3">
-        <v>237</v>
-      </c>
-      <c r="G91" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H91" s="8">
-        <f t="shared" si="0"/>
-        <v>279.65999999999997</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A92" s="3">
-        <v>88</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D92" s="5">
-        <v>4</v>
-      </c>
-      <c r="E92" s="9">
-        <v>1780</v>
-      </c>
-      <c r="F92" s="3">
-        <v>1105</v>
-      </c>
-      <c r="G92" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H92" s="8">
-        <f t="shared" si="0"/>
-        <v>1303.9000000000001</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A93" s="3">
-        <v>89</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D93" s="5">
-        <v>4</v>
-      </c>
-      <c r="E93" s="9">
-        <v>2816</v>
-      </c>
-      <c r="F93" s="3">
-        <v>1746</v>
-      </c>
-      <c r="G93" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="H93" s="8">
-        <f t="shared" si="0"/>
-        <v>2060.2799999999997</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="95" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="96" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:H100"/>
-  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -3187,28 +720,28 @@
     </row>
     <row r="4" spans="1:8" ht="14.4">
       <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.4">
@@ -3216,10 +749,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="D5" s="5">
         <v>5.4</v>
@@ -3243,10 +776,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="5">
         <v>5.4</v>
@@ -3270,10 +803,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="5">
         <v>6</v>
@@ -3297,10 +830,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="5">
         <v>5.6</v>
@@ -3324,10 +857,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="5">
         <v>6</v>
@@ -3351,10 +884,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="5">
         <v>7.2</v>
@@ -3378,10 +911,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="D11" s="5">
         <v>3</v>
@@ -3405,10 +938,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" s="5">
         <v>6</v>
@@ -3432,10 +965,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="5">
         <v>6</v>
@@ -3459,10 +992,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="D14" s="5">
         <v>6</v>
@@ -3486,10 +1019,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="D15" s="5">
         <v>24</v>
@@ -3513,10 +1046,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" s="5">
         <v>24</v>
@@ -3540,10 +1073,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="D17" s="5">
         <v>1.8</v>
@@ -3567,10 +1100,10 @@
         <v>14</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="5">
         <v>3.4</v>
@@ -3594,10 +1127,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" s="5">
         <v>6.8</v>
@@ -3621,10 +1154,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="D20" s="5">
         <v>5</v>
@@ -3648,10 +1181,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" s="5">
         <v>5</v>
@@ -3675,10 +1208,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" s="5">
         <v>5</v>
@@ -3702,10 +1235,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="9">
@@ -3727,10 +1260,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="D24" s="5">
         <v>2.5</v>
@@ -3750,10 +1283,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="D25" s="5">
         <v>10</v>
@@ -3777,10 +1310,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D26" s="5">
         <v>8</v>
@@ -3804,10 +1337,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D27" s="5">
         <v>10</v>
@@ -3831,10 +1364,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D28" s="5">
         <v>10</v>
@@ -3858,10 +1391,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="D29" s="5">
         <v>10</v>
@@ -3885,10 +1418,10 @@
         <v>26</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D30" s="5">
         <v>10</v>
@@ -3912,10 +1445,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D31" s="5">
         <v>10</v>
@@ -3939,10 +1472,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D32" s="5">
         <v>4</v>
@@ -3966,10 +1499,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D33" s="5">
         <v>4</v>
@@ -3993,10 +1526,10 @@
         <v>30</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D34" s="5">
         <v>4</v>
@@ -4020,10 +1553,10 @@
         <v>31</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="D35" s="5">
         <v>10</v>
@@ -4047,10 +1580,10 @@
         <v>32</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D36" s="5">
         <v>5</v>
@@ -4074,10 +1607,10 @@
         <v>33</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="D37" s="5">
         <v>0.6</v>
@@ -4101,10 +1634,10 @@
         <v>34</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D38" s="5">
         <v>0.6</v>
@@ -4128,10 +1661,10 @@
         <v>35</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D39" s="5">
         <v>4</v>
@@ -4155,10 +1688,10 @@
         <v>36</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D40" s="5">
         <v>4</v>
@@ -4182,10 +1715,10 @@
         <v>37</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D41" s="5">
         <v>4</v>
@@ -4209,10 +1742,10 @@
         <v>38</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D42" s="5">
         <v>4</v>
@@ -4236,10 +1769,10 @@
         <v>39</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="D43" s="5">
         <v>10</v>
@@ -4263,10 +1796,10 @@
         <v>40</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D44" s="5">
         <v>10</v>
@@ -4290,10 +1823,10 @@
         <v>41</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D45" s="5">
         <v>10</v>
@@ -4317,10 +1850,10 @@
         <v>42</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D46" s="5">
         <v>12</v>
@@ -4344,10 +1877,10 @@
         <v>43</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D47" s="5">
         <v>10</v>
@@ -4371,10 +1904,10 @@
         <v>44</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D48" s="5">
         <v>10</v>
@@ -4398,10 +1931,10 @@
         <v>45</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D49" s="5">
         <v>10</v>
@@ -4425,10 +1958,10 @@
         <v>46</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D50" s="5">
         <v>10</v>
@@ -4452,10 +1985,10 @@
         <v>47</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D51" s="5">
         <v>10</v>
@@ -4479,10 +2012,10 @@
         <v>48</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D52" s="5">
         <v>10</v>
@@ -4506,10 +2039,10 @@
         <v>49</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="D53" s="5">
         <v>20</v>
@@ -4533,10 +2066,10 @@
         <v>50</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D54" s="5">
         <v>4</v>
@@ -4560,10 +2093,10 @@
         <v>51</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D55" s="5">
         <v>4</v>
@@ -4587,10 +2120,10 @@
         <v>52</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D56" s="5">
         <v>4</v>
@@ -4614,10 +2147,10 @@
         <v>53</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D57" s="5">
         <v>10</v>
@@ -4641,10 +2174,10 @@
         <v>54</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D58" s="5">
         <v>10</v>
@@ -4668,10 +2201,10 @@
         <v>55</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D59" s="5">
         <v>10</v>
@@ -4695,10 +2228,10 @@
         <v>56</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D60" s="5">
         <v>10</v>
@@ -4722,10 +2255,10 @@
         <v>57</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D61" s="5">
         <v>10</v>
@@ -4749,10 +2282,10 @@
         <v>58</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D62" s="5">
         <v>10</v>
@@ -4776,10 +2309,10 @@
         <v>59</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D63" s="5">
         <v>10</v>
@@ -4803,10 +2336,10 @@
         <v>60</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D64" s="5">
         <v>10</v>
@@ -4830,10 +2363,10 @@
         <v>61</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D65" s="5">
         <v>10</v>
@@ -4857,10 +2390,10 @@
         <v>62</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D66" s="5">
         <v>10</v>
@@ -4884,10 +2417,10 @@
         <v>63</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D67" s="5">
         <v>10</v>
@@ -4911,10 +2444,10 @@
         <v>64</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D68" s="5">
         <v>10</v>
@@ -4938,10 +2471,10 @@
         <v>65</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D69" s="5">
         <v>10</v>
@@ -4965,10 +2498,10 @@
         <v>66</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D70" s="5">
         <v>10</v>
@@ -4992,10 +2525,10 @@
         <v>67</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="D71" s="5">
         <v>12</v>
@@ -5019,10 +2552,10 @@
         <v>68</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D72" s="5">
         <v>12</v>
@@ -5046,10 +2579,10 @@
         <v>69</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D73" s="5">
         <v>10</v>
@@ -5073,10 +2606,10 @@
         <v>70</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D74" s="5">
         <v>10</v>
@@ -5100,10 +2633,10 @@
         <v>71</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D75" s="5">
         <v>10</v>
@@ -5127,10 +2660,10 @@
         <v>72</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D76" s="5">
         <v>10</v>
@@ -5154,10 +2687,10 @@
         <v>73</v>
       </c>
       <c r="B77" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="D77" s="5">
         <v>1.536</v>
@@ -5181,10 +2714,10 @@
         <v>74</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D78" s="5">
         <v>1.536</v>
@@ -5208,10 +2741,10 @@
         <v>75</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D79" s="5">
         <v>1.536</v>
@@ -5235,10 +2768,10 @@
         <v>76</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D80" s="5">
         <v>6</v>
@@ -5262,10 +2795,10 @@
         <v>77</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D81" s="5">
         <v>6</v>
@@ -5289,10 +2822,10 @@
         <v>78</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D82" s="5">
         <v>6</v>
@@ -5316,10 +2849,10 @@
         <v>79</v>
       </c>
       <c r="B83" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="D83" s="5">
         <v>7.2</v>
@@ -5343,10 +2876,10 @@
         <v>80</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D84" s="5">
         <v>7.2</v>
@@ -5370,10 +2903,10 @@
         <v>81</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D85" s="5">
         <v>7.2</v>
@@ -5397,10 +2930,10 @@
         <v>82</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D86" s="5">
         <v>10</v>
@@ -5424,10 +2957,10 @@
         <v>83</v>
       </c>
       <c r="B87" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="D87" s="5">
         <v>0.92</v>
@@ -5451,10 +2984,10 @@
         <v>84</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D88" s="5">
         <v>0.92</v>
@@ -5478,10 +3011,10 @@
         <v>85</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D89" s="5">
         <v>10</v>
@@ -5505,10 +3038,10 @@
         <v>86</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D90" s="5">
         <v>10</v>
@@ -5532,10 +3065,10 @@
         <v>87</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D91" s="5">
         <v>4</v>
@@ -5559,10 +3092,10 @@
         <v>88</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D92" s="5">
         <v>4</v>
@@ -5586,10 +3119,10 @@
         <v>89</v>
       </c>
       <c r="B93" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="D93" s="5">
         <v>4</v>

--- a/data/prices.xlsx
+++ b/data/prices.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58376BBC-E0A4-48B0-8404-471E6AF8BE59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF598BD-B980-4084-AD4C-D96D52525544}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8364" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Akshatha Agro Agencies" sheetId="1" r:id="rId1"/>
+    <sheet name="AKSHATHA AGRO AGENCIES" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="83">
   <si>
     <t xml:space="preserve"> S NO</t>
   </si>
@@ -76,9 +89,6 @@
     <t>60 Ml</t>
   </si>
   <si>
-    <t>CORAGEN</t>
-  </si>
-  <si>
     <t>150 Ml</t>
   </si>
   <si>
@@ -115,15 +125,9 @@
     <t>500 GM</t>
   </si>
   <si>
-    <t xml:space="preserve">AFFINITY 20 </t>
-  </si>
-  <si>
     <t>20 GM</t>
   </si>
   <si>
-    <t xml:space="preserve">AFFINITY 25 </t>
-  </si>
-  <si>
     <t>25 GM</t>
   </si>
   <si>
@@ -175,9 +179,6 @@
     <t xml:space="preserve">LEVANA </t>
   </si>
   <si>
-    <t>LEVANA</t>
-  </si>
-  <si>
     <t>MARSHAL</t>
   </si>
   <si>
@@ -205,39 +206,18 @@
     <t>TALSTAR PLUS</t>
   </si>
   <si>
-    <t xml:space="preserve">PETRA 1 </t>
-  </si>
-  <si>
-    <t>PETRA 2</t>
-  </si>
-  <si>
     <t xml:space="preserve">CAZBO </t>
   </si>
   <si>
     <t xml:space="preserve">MIRACLE </t>
   </si>
   <si>
-    <t>NUTROMAX,</t>
-  </si>
-  <si>
     <t>3 KG</t>
   </si>
   <si>
     <t>15 KG</t>
   </si>
   <si>
-    <t>ZINATRA 700</t>
-  </si>
-  <si>
-    <t>ZINATRA 701</t>
-  </si>
-  <si>
-    <t>ZINATRA 702</t>
-  </si>
-  <si>
-    <t>ZINATRA 703</t>
-  </si>
-  <si>
     <t>FURAGRO LEGEND</t>
   </si>
   <si>
@@ -280,19 +260,28 @@
     <t>CAMELOT</t>
   </si>
   <si>
-    <t xml:space="preserve">CAMELOT </t>
-  </si>
-  <si>
     <t xml:space="preserve">VELZO </t>
   </si>
   <si>
     <t>800 GM</t>
   </si>
   <si>
+    <t>AFFINITY</t>
+  </si>
+  <si>
+    <t>PETRA</t>
+  </si>
+  <si>
+    <t>NUTROMAX</t>
+  </si>
+  <si>
+    <t>ZINATRA</t>
+  </si>
+  <si>
+    <t>AKSHATHA AGRO AGENCIES</t>
+  </si>
+  <si>
     <t>PRODUCT NAME</t>
-  </si>
-  <si>
-    <t>Akshatha Agro Agencies</t>
   </si>
 </sst>
 </file>
@@ -366,7 +355,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -695,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="J79" sqref="J79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -712,7 +701,7 @@
   <sheetData>
     <row r="2" spans="1:8" ht="14.4">
       <c r="B2" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -723,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1</v>
@@ -992,10 +981,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="D14" s="5">
         <v>6</v>
@@ -1019,10 +1008,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="D15" s="5">
         <v>24</v>
@@ -1046,10 +1035,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" s="5">
         <v>24</v>
@@ -1073,10 +1062,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="D17" s="5">
         <v>1.8</v>
@@ -1100,10 +1089,10 @@
         <v>14</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" s="5">
         <v>3.4</v>
@@ -1127,10 +1116,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" s="5">
         <v>6.8</v>
@@ -1154,10 +1143,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="D20" s="5">
         <v>5</v>
@@ -1181,10 +1170,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21" s="5">
         <v>5</v>
@@ -1208,10 +1197,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22" s="5">
         <v>5</v>
@@ -1235,10 +1224,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="9">
@@ -1260,10 +1249,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D24" s="5">
         <v>2.5</v>
@@ -1283,10 +1272,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D25" s="5">
         <v>10</v>
@@ -1310,10 +1299,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D26" s="5">
         <v>8</v>
@@ -1337,10 +1326,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="D27" s="5">
         <v>10</v>
@@ -1364,10 +1353,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D28" s="5">
         <v>10</v>
@@ -1391,10 +1380,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D29" s="5">
         <v>10</v>
@@ -1418,10 +1407,10 @@
         <v>26</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D30" s="5">
         <v>10</v>
@@ -1445,10 +1434,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D31" s="5">
         <v>10</v>
@@ -1472,10 +1461,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D32" s="5">
         <v>4</v>
@@ -1499,10 +1488,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D33" s="5">
         <v>4</v>
@@ -1526,10 +1515,10 @@
         <v>30</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D34" s="5">
         <v>4</v>
@@ -1553,10 +1542,10 @@
         <v>31</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D35" s="5">
         <v>10</v>
@@ -1580,10 +1569,10 @@
         <v>32</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D36" s="5">
         <v>5</v>
@@ -1607,10 +1596,10 @@
         <v>33</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D37" s="5">
         <v>0.6</v>
@@ -1634,10 +1623,10 @@
         <v>34</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D38" s="5">
         <v>0.6</v>
@@ -1661,10 +1650,10 @@
         <v>35</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D39" s="5">
         <v>4</v>
@@ -1688,10 +1677,10 @@
         <v>36</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D40" s="5">
         <v>4</v>
@@ -1715,10 +1704,10 @@
         <v>37</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D41" s="5">
         <v>4</v>
@@ -1742,10 +1731,10 @@
         <v>38</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D42" s="5">
         <v>4</v>
@@ -1769,10 +1758,10 @@
         <v>39</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D43" s="5">
         <v>10</v>
@@ -1796,10 +1785,10 @@
         <v>40</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D44" s="5">
         <v>10</v>
@@ -1823,10 +1812,10 @@
         <v>41</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D45" s="5">
         <v>10</v>
@@ -1850,10 +1839,10 @@
         <v>42</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D46" s="5">
         <v>12</v>
@@ -1877,10 +1866,10 @@
         <v>43</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="D47" s="5">
         <v>10</v>
@@ -1904,10 +1893,10 @@
         <v>44</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D48" s="5">
         <v>10</v>
@@ -1931,10 +1920,10 @@
         <v>45</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D49" s="5">
         <v>10</v>
@@ -1958,10 +1947,10 @@
         <v>46</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D50" s="5">
         <v>10</v>
@@ -1985,10 +1974,10 @@
         <v>47</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D51" s="5">
         <v>10</v>
@@ -2012,10 +2001,10 @@
         <v>48</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D52" s="5">
         <v>10</v>
@@ -2039,10 +2028,10 @@
         <v>49</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D53" s="5">
         <v>20</v>
@@ -2066,10 +2055,10 @@
         <v>50</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D54" s="5">
         <v>4</v>
@@ -2093,10 +2082,10 @@
         <v>51</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D55" s="5">
         <v>4</v>
@@ -2120,10 +2109,10 @@
         <v>52</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D56" s="5">
         <v>4</v>
@@ -2147,10 +2136,10 @@
         <v>53</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D57" s="5">
         <v>10</v>
@@ -2174,10 +2163,10 @@
         <v>54</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D58" s="5">
         <v>10</v>
@@ -2201,10 +2190,10 @@
         <v>55</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D59" s="5">
         <v>10</v>
@@ -2228,10 +2217,10 @@
         <v>56</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D60" s="5">
         <v>10</v>
@@ -2255,10 +2244,10 @@
         <v>57</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D61" s="5">
         <v>10</v>
@@ -2282,10 +2271,10 @@
         <v>58</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D62" s="5">
         <v>10</v>
@@ -2309,10 +2298,10 @@
         <v>59</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D63" s="5">
         <v>10</v>
@@ -2336,10 +2325,10 @@
         <v>60</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D64" s="5">
         <v>10</v>
@@ -2363,10 +2352,10 @@
         <v>61</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D65" s="5">
         <v>10</v>
@@ -2390,10 +2379,10 @@
         <v>62</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D66" s="5">
         <v>10</v>
@@ -2417,10 +2406,10 @@
         <v>63</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D67" s="5">
         <v>10</v>
@@ -2444,10 +2433,10 @@
         <v>64</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D68" s="5">
         <v>10</v>
@@ -2471,10 +2460,10 @@
         <v>65</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D69" s="5">
         <v>10</v>
@@ -2498,10 +2487,10 @@
         <v>66</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D70" s="5">
         <v>10</v>
@@ -2525,10 +2514,10 @@
         <v>67</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D71" s="5">
         <v>12</v>
@@ -2552,10 +2541,10 @@
         <v>68</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D72" s="5">
         <v>12</v>
@@ -2579,10 +2568,10 @@
         <v>69</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D73" s="5">
         <v>10</v>
@@ -2606,10 +2595,10 @@
         <v>70</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D74" s="5">
         <v>10</v>
@@ -2633,10 +2622,10 @@
         <v>71</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D75" s="5">
         <v>10</v>
@@ -2660,10 +2649,10 @@
         <v>72</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D76" s="5">
         <v>10</v>
@@ -2687,10 +2676,10 @@
         <v>73</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D77" s="5">
         <v>1.536</v>
@@ -2714,10 +2703,10 @@
         <v>74</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D78" s="5">
         <v>1.536</v>
@@ -2741,10 +2730,10 @@
         <v>75</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D79" s="5">
         <v>1.536</v>
@@ -2768,10 +2757,10 @@
         <v>76</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D80" s="5">
         <v>6</v>
@@ -2795,10 +2784,10 @@
         <v>77</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D81" s="5">
         <v>6</v>
@@ -2822,10 +2811,10 @@
         <v>78</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D82" s="5">
         <v>6</v>
@@ -2849,10 +2838,10 @@
         <v>79</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D83" s="5">
         <v>7.2</v>
@@ -2876,10 +2865,10 @@
         <v>80</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D84" s="5">
         <v>7.2</v>
@@ -2903,10 +2892,10 @@
         <v>81</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D85" s="5">
         <v>7.2</v>
@@ -2930,10 +2919,10 @@
         <v>82</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D86" s="5">
         <v>10</v>
@@ -2957,10 +2946,10 @@
         <v>83</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D87" s="5">
         <v>0.92</v>
@@ -2984,10 +2973,10 @@
         <v>84</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D88" s="5">
         <v>0.92</v>
@@ -3011,10 +3000,10 @@
         <v>85</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D89" s="5">
         <v>10</v>
@@ -3038,10 +3027,10 @@
         <v>86</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D90" s="5">
         <v>10</v>
@@ -3065,10 +3054,10 @@
         <v>87</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D91" s="5">
         <v>4</v>
@@ -3092,10 +3081,10 @@
         <v>88</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D92" s="5">
         <v>4</v>
@@ -3119,10 +3108,10 @@
         <v>89</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D93" s="5">
         <v>4</v>

--- a/data/prices.xlsx
+++ b/data/prices.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB60893-E00E-4F29-B015-08B99F06FA22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FE8E3E-A586-40BD-A0F1-CF4256ADB9A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8364" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="AKSHATHA AGRO AGENCIES" sheetId="1" r:id="rId1"/>
+    <sheet name="BANGALORE REGION" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
@@ -735,7 +735,7 @@
   <dimension ref="A2:H105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
